--- a/Metadatos.xlsx
+++ b/Metadatos.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2877523a2f202806/Escritorio/HOSPITAL/TFM_Hospital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C13ADBB-D5F7-467A-8FE3-A20EDB96B59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_9696AB879B44B4909EC5C781048CB88972D050DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49927547-8BEC-437D-8D6D-44EB2D8C6F62}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{530762E8-95B2-4E07-A842-F3DA04B25AE8}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">METADATOS!$A$1:$I$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -647,11 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB871B0-E4F9-4A11-AD10-41135ACF2651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="Q1" activeCellId="5" sqref="G1:G1048576 H1:H1048576 I1:I1048576 O1:O1048576 P1:P1048576 Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
